--- a/solution/Estimate Load.xlsx
+++ b/solution/Estimate Load.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pym\CamundaDrive\Challenge\loadtest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pym\CamundaDrive\MyWork\Challenge\c8-loadtest-challenge\solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B18A454D-3E43-40C4-90B9-D73C2EA2459F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390EA8F8-8562-4E77-B3E3-67AF135AA006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{41B7B72B-5F46-4D2C-839E-9BE9BACEA36D}"/>
+    <workbookView xWindow="47220" yWindow="7980" windowWidth="23595" windowHeight="11790" xr2:uid="{41B7B72B-5F46-4D2C-839E-9BE9BACEA36D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Service</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Execution (ms)</t>
+  </si>
+  <si>
+    <t>nb task/mn</t>
   </si>
 </sst>
 </file>
@@ -489,39 +492,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0017E2-5822-41D5-81D5-8C5FB09D1668}">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
-    <col min="5" max="5" width="16.90625" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="3" max="4" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="8" width="16.90625" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="42" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" ht="42" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -529,176 +537,306 @@
         <v>30</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <f>60/(C3/1000)</f>
+        <v>2000</v>
       </c>
       <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
         <v>223</v>
       </c>
-      <c r="F3" s="3">
-        <f>E3*C3/1000</f>
+      <c r="G3" s="2">
+        <f>F3*60</f>
+        <v>13380</v>
+      </c>
+      <c r="H3" s="2">
+        <f>G3/D3</f>
         <v>6.69</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="I3" s="3">
+        <f>F3*C3/1000</f>
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="4">
         <v>100</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D12" si="0">60/(C4/1000)</f>
+        <v>600</v>
       </c>
       <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
         <v>223</v>
       </c>
-      <c r="F4" s="3">
-        <f t="shared" ref="F4:F12" si="0">E4*C4/1000</f>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G12" si="1">F4*60</f>
+        <v>13380</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" ref="H4:H12" si="2">G4/D4</f>
         <v>22.3</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I12" si="3">F4*C4/1000</f>
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="4">
         <v>1200</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
         <v>223</v>
       </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
+      <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>13380</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
         <v>267.60000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>267.60000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4">
         <v>300</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
         <v>223</v>
       </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
+      <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>13380</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
         <v>66.900000000000006</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="28" x14ac:dyDescent="0.35">
+      <c r="I6" s="3">
+        <f t="shared" si="3"/>
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="28" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4">
         <v>400</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>446</v>
       </c>
-      <c r="F7" s="3">
-        <f t="shared" si="0"/>
+      <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>26760</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
         <v>178.4</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="I7" s="3">
+        <f t="shared" si="3"/>
+        <v>178.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4">
         <v>1300</v>
       </c>
-      <c r="D8" s="4">
-        <v>1</v>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>46.153846153846153</v>
       </c>
       <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
         <v>223</v>
       </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
+      <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>13380</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
         <v>289.89999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="I8" s="3">
+        <f t="shared" si="3"/>
+        <v>289.89999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4">
         <v>1200</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
         <v>223</v>
       </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
+      <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>13380</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
         <v>267.60000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="I9" s="3">
+        <f t="shared" si="3"/>
+        <v>267.60000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="4">
         <v>1400</v>
       </c>
-      <c r="D10" s="4">
-        <v>1</v>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>42.857142857142861</v>
       </c>
       <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
         <v>223</v>
       </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>13380</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
         <v>312.2</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="I10" s="3">
+        <f t="shared" si="3"/>
+        <v>312.2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="4">
         <v>80</v>
       </c>
-      <c r="D11" s="4">
-        <v>1</v>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>750</v>
       </c>
       <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
         <v>223</v>
       </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
+      <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>13380</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
         <v>17.84</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="I11" s="3">
+        <f t="shared" si="3"/>
+        <v>17.84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4">
         <v>4300</v>
       </c>
-      <c r="D12" s="4">
-        <v>1</v>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>13.953488372093023</v>
       </c>
       <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
         <v>223</v>
       </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
+      <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>13380</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
         <v>958.9</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="3"/>
+        <v>958.9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <f>958/7</f>
+        <v>136.85714285714286</v>
+      </c>
+      <c r="D14">
+        <f>958/250</f>
+        <v>3.8319999999999999</v>
       </c>
     </row>
   </sheetData>
